--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1527,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.36686894188847</v>
+        <v>103.6728188232239</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.5932515053885</v>
+        <v>141.8497244358444</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.22926399332766</v>
+        <v>128.3117858230643</v>
       </c>
       <c r="AD2" t="n">
-        <v>79366.86894188848</v>
+        <v>103672.8188232239</v>
       </c>
       <c r="AE2" t="n">
-        <v>108593.2515053885</v>
+        <v>141849.7244358444</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.641905531261451e-06</v>
+        <v>6.738478736251883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.173177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>98229.26399332767</v>
+        <v>128311.7858230643</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.24329191964097</v>
+        <v>88.63449314699697</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.90050621843059</v>
+        <v>121.2736238015357</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.51140527409999</v>
+        <v>109.6994393545489</v>
       </c>
       <c r="AD3" t="n">
-        <v>64243.29191964096</v>
+        <v>88634.49314699697</v>
       </c>
       <c r="AE3" t="n">
-        <v>87900.50621843059</v>
+        <v>121273.6238015357</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.913810762623105e-06</v>
+        <v>7.241574602983913e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.880208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>79511.40527409999</v>
+        <v>109699.4393545489</v>
       </c>
     </row>
   </sheetData>
@@ -1930,28 +1930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.52082882018783</v>
+        <v>85.04825308562198</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.17551209916545</v>
+        <v>116.3667719358196</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.14191936551421</v>
+        <v>105.2608905440853</v>
       </c>
       <c r="AD2" t="n">
-        <v>61520.82882018783</v>
+        <v>85048.25308562198</v>
       </c>
       <c r="AE2" t="n">
-        <v>84175.51209916544</v>
+        <v>116366.7719358196</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.066023051696708e-06</v>
+        <v>7.750467455624363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>76141.91936551422</v>
+        <v>105260.8905440853</v>
       </c>
     </row>
     <row r="3">
@@ -2036,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.31845928123394</v>
+        <v>84.84588354666808</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.8986211680549</v>
+        <v>116.089881004709</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.89145451624992</v>
+        <v>105.010425694821</v>
       </c>
       <c r="AD3" t="n">
-        <v>61318.45928123394</v>
+        <v>84845.88354666808</v>
       </c>
       <c r="AE3" t="n">
-        <v>83898.6211680549</v>
+        <v>116089.881004709</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.10673398978781e-06</v>
+        <v>7.828068786642732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>75891.45451624993</v>
+        <v>105010.425694821</v>
       </c>
     </row>
   </sheetData>
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.35069016328985</v>
+        <v>85.57033592771882</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.36501206461003</v>
+        <v>117.0811087130455</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.2677196851304</v>
+        <v>105.907052021871</v>
       </c>
       <c r="AD2" t="n">
-        <v>54350.69016328984</v>
+        <v>85570.33592771881</v>
       </c>
       <c r="AE2" t="n">
-        <v>74365.01206461003</v>
+        <v>117081.1087130455</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.390460496830813e-06</v>
+        <v>9.350531861854819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.997395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67267.7196851304</v>
+        <v>105907.052021871</v>
       </c>
     </row>
   </sheetData>
@@ -2630,28 +2630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.69475126407395</v>
+        <v>78.63834335647435</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.57225987537851</v>
+        <v>107.5964506591449</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.16887226624073</v>
+        <v>97.32759642083043</v>
       </c>
       <c r="AD2" t="n">
-        <v>56694.75126407395</v>
+        <v>78638.34335647435</v>
       </c>
       <c r="AE2" t="n">
-        <v>77572.25987537851</v>
+        <v>107596.4506591449</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.359228902550943e-06</v>
+        <v>8.85074179563304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.84765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>70168.87226624072</v>
+        <v>97327.59642083044</v>
       </c>
     </row>
   </sheetData>
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.02367220966067</v>
+        <v>83.03139745762681</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.23176872541221</v>
+        <v>113.6072210882074</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.00192974532696</v>
+        <v>102.7647073563144</v>
       </c>
       <c r="AD2" t="n">
-        <v>63023.67220966067</v>
+        <v>83031.39745762681</v>
       </c>
       <c r="AE2" t="n">
-        <v>86231.76872541221</v>
+        <v>113607.2210882074</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.280838725459073e-06</v>
+        <v>9.532591690878193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.2578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>78001.92974532697</v>
+        <v>102764.7073563144</v>
       </c>
     </row>
   </sheetData>
@@ -3224,28 +3224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.16759439497719</v>
+        <v>85.92205505016055</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.06044529187518</v>
+        <v>117.5623463331226</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.94239577632356</v>
+        <v>106.3423609989093</v>
       </c>
       <c r="AD2" t="n">
-        <v>62167.59439497719</v>
+        <v>85922.05505016055</v>
       </c>
       <c r="AE2" t="n">
-        <v>85060.44529187518</v>
+        <v>117562.3463331227</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.035528506954917e-06</v>
+        <v>7.630230684642083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76942.39577632357</v>
+        <v>106342.3609989093</v>
       </c>
     </row>
     <row r="3">
@@ -3330,28 +3330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.21042606624194</v>
+        <v>85.96488672142529</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.11904947409955</v>
+        <v>117.620950515347</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.99540685764794</v>
+        <v>106.3953720802337</v>
       </c>
       <c r="AD3" t="n">
-        <v>62210.42606624193</v>
+        <v>85964.88672142528</v>
       </c>
       <c r="AE3" t="n">
-        <v>85119.04947409955</v>
+        <v>117620.950515347</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.041199812182251e-06</v>
+        <v>7.640953782519598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>76995.40685764793</v>
+        <v>106395.3720802337</v>
       </c>
     </row>
   </sheetData>
@@ -3627,28 +3627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.16578445178772</v>
+        <v>81.67971107536441</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.0579688477543</v>
+        <v>111.7577841478023</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.94015568055387</v>
+        <v>101.0917780818</v>
       </c>
       <c r="AD2" t="n">
-        <v>62165.78445178772</v>
+        <v>81679.71107536441</v>
       </c>
       <c r="AE2" t="n">
-        <v>85057.96884775429</v>
+        <v>111757.7841478023</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.141577316535113e-06</v>
+        <v>9.494842440922869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.498697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76940.15568055387</v>
+        <v>101091.7780818</v>
       </c>
     </row>
   </sheetData>
@@ -3924,28 +3924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.04308010980859</v>
+        <v>81.83366144312227</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.7853470030679</v>
+        <v>111.9684258327794</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.07530686806058</v>
+        <v>101.2823164200003</v>
       </c>
       <c r="AD2" t="n">
-        <v>59043.08010980859</v>
+        <v>81833.66144312227</v>
       </c>
       <c r="AE2" t="n">
-        <v>80785.3470030679</v>
+        <v>111968.4258327794</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.239418424647015e-06</v>
+        <v>8.309201523824554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.821614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73075.30686806058</v>
+        <v>101282.3164200003</v>
       </c>
     </row>
   </sheetData>
@@ -4221,28 +4221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.66034765475627</v>
+        <v>83.95210218676512</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.99816380687275</v>
+        <v>114.8669699172397</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.07693554181888</v>
+        <v>103.9042275251728</v>
       </c>
       <c r="AD2" t="n">
-        <v>60660.34765475627</v>
+        <v>83952.10218676511</v>
       </c>
       <c r="AE2" t="n">
-        <v>82998.16380687275</v>
+        <v>114866.9699172397</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.127800819164201e-06</v>
+        <v>7.936535353743148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.84765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>75076.93554181888</v>
+        <v>103904.2275251728</v>
       </c>
     </row>
   </sheetData>
@@ -4518,28 +4518,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.60839556937997</v>
+        <v>101.7088551020982</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.1872306587536</v>
+        <v>139.1625426286371</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.05287039942333</v>
+        <v>125.8810648760527</v>
       </c>
       <c r="AD2" t="n">
-        <v>77608.39556937997</v>
+        <v>101708.8551020982</v>
       </c>
       <c r="AE2" t="n">
-        <v>106187.2306587536</v>
+        <v>139162.5426286371</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.758473007086087e-06</v>
+        <v>7.001750145463205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>96052.87039942332</v>
+        <v>125881.0648760527</v>
       </c>
     </row>
     <row r="3">
@@ -4624,28 +4624,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.8629998563306</v>
+        <v>87.04871073506935</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.01192972322217</v>
+        <v>119.103886345755</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.8030718689599</v>
+        <v>107.7367785963015</v>
       </c>
       <c r="AD3" t="n">
-        <v>62862.9998563306</v>
+        <v>87048.71073506935</v>
       </c>
       <c r="AE3" t="n">
-        <v>86011.92972322217</v>
+        <v>119103.886345755</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.016740974576471e-06</v>
+        <v>7.482883780195962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.815104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>77803.0718689599</v>
+        <v>107736.7785963015</v>
       </c>
     </row>
   </sheetData>
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.39323996935615</v>
+        <v>79.63420694757393</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.52796293709197</v>
+        <v>108.9590351588876</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.03336436908224</v>
+        <v>98.56013776831746</v>
       </c>
       <c r="AD2" t="n">
-        <v>57393.23996935615</v>
+        <v>79634.20694757393</v>
       </c>
       <c r="AE2" t="n">
-        <v>78527.96293709197</v>
+        <v>108959.0351588876</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.336870464878371e-06</v>
+        <v>8.693245375671748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.821614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71033.36436908224</v>
+        <v>98560.13776831747</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.148069477134</v>
+        <v>76.4385674908778</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.45602161970365</v>
+        <v>104.5866202725753</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.25460481952776</v>
+        <v>94.60502002203059</v>
       </c>
       <c r="AD2" t="n">
-        <v>55148.069477134</v>
+        <v>76438.5674908778</v>
       </c>
       <c r="AE2" t="n">
-        <v>75456.02161970365</v>
+        <v>104586.6202725753</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.395270346878364e-06</v>
+        <v>9.195180436721404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.92578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>68254.60481952775</v>
+        <v>94605.02002203059</v>
       </c>
     </row>
   </sheetData>
@@ -8240,28 +8240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.86114334878942</v>
+        <v>84.30666240855656</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.37763368458668</v>
+        <v>115.3520948547875</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.03843496102976</v>
+        <v>104.3430528195584</v>
       </c>
       <c r="AD2" t="n">
-        <v>63861.14334878942</v>
+        <v>84306.66240855656</v>
       </c>
       <c r="AE2" t="n">
-        <v>87377.63368458669</v>
+        <v>115352.0948547875</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.372153300532756e-06</v>
+        <v>9.504430679061686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>79038.43496102976</v>
+        <v>104343.0528195584</v>
       </c>
     </row>
   </sheetData>
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.60276063915182</v>
+        <v>90.05455180770153</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.28761482844865</v>
+        <v>123.2166107096773</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.24332316765187</v>
+        <v>111.4569903191773</v>
       </c>
       <c r="AD2" t="n">
-        <v>61602.76063915182</v>
+        <v>90054.55180770153</v>
       </c>
       <c r="AE2" t="n">
-        <v>84287.61482844866</v>
+        <v>123216.6107096773</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.857011159066254e-06</v>
+        <v>9.17400504044844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.967447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>76243.32316765186</v>
+        <v>111456.9903191773</v>
       </c>
     </row>
   </sheetData>
@@ -8834,28 +8834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.66106103225507</v>
+        <v>82.70757363456192</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.63089576455292</v>
+        <v>113.1641510473914</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.84015764248485</v>
+        <v>102.363923298341</v>
       </c>
       <c r="AD2" t="n">
-        <v>59661.06103225507</v>
+        <v>82707.57363456192</v>
       </c>
       <c r="AE2" t="n">
-        <v>81630.89576455292</v>
+        <v>113164.1510473914</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.211402334093732e-06</v>
+        <v>8.172555539865421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.80859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>73840.15764248486</v>
+        <v>102363.923298341</v>
       </c>
     </row>
   </sheetData>
@@ -9131,28 +9131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.62103160504871</v>
+        <v>87.59469301329732</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.04910220381831</v>
+        <v>119.8509233858642</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.74125806368899</v>
+        <v>108.4125194697761</v>
       </c>
       <c r="AD2" t="n">
-        <v>63621.03160504872</v>
+        <v>87594.69301329732</v>
       </c>
       <c r="AE2" t="n">
-        <v>87049.10220381831</v>
+        <v>119850.9233858642</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.915708690596185e-06</v>
+        <v>7.347405359019007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.9453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>78741.25806368899</v>
+        <v>108412.5194697761</v>
       </c>
     </row>
     <row r="3">
@@ -9237,28 +9237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.85425689057585</v>
+        <v>86.82791829882446</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.99996721176409</v>
+        <v>118.80178839381</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.79225104280587</v>
+        <v>107.4635124488929</v>
       </c>
       <c r="AD3" t="n">
-        <v>62854.25689057585</v>
+        <v>86827.91829882446</v>
       </c>
       <c r="AE3" t="n">
-        <v>85999.96721176409</v>
+        <v>118801.78839381</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.002324297787569e-06</v>
+        <v>7.509930211284195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.860677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>77792.25104280587</v>
+        <v>107463.5124488929</v>
       </c>
     </row>
   </sheetData>
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.50969855400221</v>
+        <v>107.9050260976815</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.1569213987659</v>
+        <v>147.6404171405618</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.64369942670606</v>
+        <v>133.5498229433336</v>
       </c>
       <c r="AD2" t="n">
-        <v>80509.69855400221</v>
+        <v>107905.0260976815</v>
       </c>
       <c r="AE2" t="n">
-        <v>110156.9213987659</v>
+        <v>147640.4171405618</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.268340157499906e-06</v>
+        <v>8.173870701103386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>99643.69942670607</v>
+        <v>133549.8229433336</v>
       </c>
     </row>
   </sheetData>
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.96668817281723</v>
+        <v>77.59458212150278</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.57609183404489</v>
+        <v>106.1683304899617</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.26777710464104</v>
+        <v>96.03577403621438</v>
       </c>
       <c r="AD2" t="n">
-        <v>55966.68817281723</v>
+        <v>77594.58212150278</v>
       </c>
       <c r="AE2" t="n">
-        <v>76576.09183404488</v>
+        <v>106168.3304899617</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.376537668744778e-06</v>
+        <v>9.012531625081538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.88671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>69267.77710464103</v>
+        <v>96035.77403621438</v>
       </c>
     </row>
   </sheetData>
@@ -10128,28 +10128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.25181759669606</v>
+        <v>80.77443225424285</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.70270672458949</v>
+        <v>110.5191417266615</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.09599225826463</v>
+        <v>99.97134995488689</v>
       </c>
       <c r="AD2" t="n">
-        <v>58251.81759669606</v>
+        <v>80774.43225424286</v>
       </c>
       <c r="AE2" t="n">
-        <v>79702.70672458949</v>
+        <v>110519.1417266615</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.283826724883218e-06</v>
+        <v>8.487049444969297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.821614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72095.99225826462</v>
+        <v>99971.34995488689</v>
       </c>
     </row>
   </sheetData>
